--- a/biology/Médecine/CMC_Flamboyant/CMC_Flamboyant.xlsx
+++ b/biology/Médecine/CMC_Flamboyant/CMC_Flamboyant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le centre médical communal Les Flamboyants est un Centre de Santé publique de Conakry. Il est situé dans la commune de Ratoma.
@@ -512,11 +524,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le centre médical communal Les flamboyants, commune de Ratoma, a été construit en 1997 pour abriter le service d'ophtalmologie[1]. Il comprend aussi un service de médecine, une maternité, une pédiatrie, une pharmacie et un laboratoire[2].
-il est un lieu de prise en charge des personnes vivants avec le VIH sida[3].
-Pendant la pandémie il était un centre de prélèvement au Covid-19[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le centre médical communal Les flamboyants, commune de Ratoma, a été construit en 1997 pour abriter le service d'ophtalmologie. Il comprend aussi un service de médecine, une maternité, une pédiatrie, une pharmacie et un laboratoire.
+il est un lieu de prise en charge des personnes vivants avec le VIH sida.
+Pendant la pandémie il était un centre de prélèvement au Covid-19,.
 </t>
         </is>
       </c>
